--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/fr/ExportSpecLabelClaimList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/fr/ExportSpecLabelClaimList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="hidden" r:id="rId2"/>
@@ -510,7 +510,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -606,17 +606,17 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="42.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.21"/>
